--- a/pokemondata.xlsx
+++ b/pokemondata.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alyam\Desktop\ALYA\Alya Floders\GithubProjects\DBExcelImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A7428AF-2065-42B5-99C7-544FB168F3BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E70AAC-B798-4482-BCA0-93AC2F60F6F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pokemon" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="839">
   <si>
     <t>id</t>
   </si>
@@ -2542,7 +2543,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3376,10 +3377,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N808"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -37732,4 +37735,554 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB3705D-981D-4D59-9A6C-199C1B766AC6}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.7</v>
+      </c>
+      <c r="C2">
+        <v>6.9</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>236</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>8.5</v>
+      </c>
+      <c r="D5">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>142</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.7</v>
+      </c>
+      <c r="C7">
+        <v>90.5</v>
+      </c>
+      <c r="D7">
+        <v>240</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>22.5</v>
+      </c>
+      <c r="D9">
+        <v>142</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1.6</v>
+      </c>
+      <c r="C10">
+        <v>85.5</v>
+      </c>
+      <c r="D10">
+        <v>239</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.3</v>
+      </c>
+      <c r="C11">
+        <v>2.9</v>
+      </c>
+      <c r="D11">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.7</v>
+      </c>
+      <c r="C12">
+        <v>9.9</v>
+      </c>
+      <c r="D12">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C13">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="C14">
+        <v>3.2</v>
+      </c>
+      <c r="D14">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>29.5</v>
+      </c>
+      <c r="D16">
+        <v>178</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="C17">
+        <v>1.8</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>122</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1.5</v>
+      </c>
+      <c r="C19">
+        <v>39.5</v>
+      </c>
+      <c r="D19">
+        <v>216</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+      <c r="C20">
+        <v>3.5</v>
+      </c>
+      <c r="D20">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.7</v>
+      </c>
+      <c r="C21">
+        <v>18.5</v>
+      </c>
+      <c r="D21">
+        <v>145</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0.3</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1.2</v>
+      </c>
+      <c r="C23">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>155</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>6.9</v>
+      </c>
+      <c r="D24">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>3.5</v>
+      </c>
+      <c r="C25">
+        <v>65</v>
+      </c>
+      <c r="D25">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.4</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.8</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>218</v>
+      </c>
+      <c r="E27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0.6</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>29.5</v>
+      </c>
+      <c r="D29">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>